--- a/input/DatabaseCountryYear.xlsx
+++ b/input/DatabaseCountryYear.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="11">
   <si>
     <t>Country</t>
   </si>
